--- a/res/voc/animal.xlsx
+++ b/res/voc/animal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Động vật</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seen</t>
   </si>
   <si>
     <t xml:space="preserve">dog</t>
@@ -131,9 +134,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -207,7 +211,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -224,6 +228,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -233,6 +241,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -256,14 +268,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,150 +293,185 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C7" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C14" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="C15" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="C16" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C17" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C18" s="8" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/res/voc/animal.xlsx
+++ b/res/voc/animal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Động vật</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">seen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgPath</t>
   </si>
   <si>
     <t xml:space="preserve">dog</t>
@@ -211,7 +214,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,10 +232,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -268,15 +267,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -296,181 +295,199 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="b">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="b">
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="b">
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="b">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8" t="b">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8" t="b">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8" t="b">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8" t="b">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="8" t="b">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="8" t="b">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8" t="b">
+        <v>26</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="8" t="b">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="8" t="b">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="8" t="b">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="8" t="b">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="8" t="b">
+        <v>36</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/res/voc/animal.xlsx
+++ b/res/voc/animal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="122">
   <si>
     <t/>
   </si>
@@ -32,16 +32,316 @@
     <t>imgPath</t>
   </si>
   <si>
+    <t>snail</t>
+  </si>
+  <si>
+    <t>ốc sên</t>
+  </si>
+  <si>
+    <t>panda</t>
+  </si>
+  <si>
+    <t>gấu trúc</t>
+  </si>
+  <si>
+    <t>bee</t>
+  </si>
+  <si>
+    <t>ong</t>
+  </si>
+  <si>
+    <t>monkey</t>
+  </si>
+  <si>
+    <t>khỉ</t>
+  </si>
+  <si>
+    <t>rhino</t>
+  </si>
+  <si>
+    <t>tê giác</t>
+  </si>
+  <si>
+    <t>octopus</t>
+  </si>
+  <si>
+    <t>bạch tuộc</t>
+  </si>
+  <si>
+    <t>ladybug</t>
+  </si>
+  <si>
+    <t>bọ rùa</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>lợn, heo</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>chuột</t>
+  </si>
+  <si>
+    <t>mule</t>
+  </si>
+  <si>
+    <t>con la</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>con dơi</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>con ếch</t>
+  </si>
+  <si>
+    <t>duck</t>
+  </si>
+  <si>
+    <t>vịt</t>
+  </si>
+  <si>
+    <t>camel</t>
+  </si>
+  <si>
+    <t>lạc đà</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>chim chóc</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>con thỏ</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>gấu</t>
+  </si>
+  <si>
+    <t>pigeon</t>
+  </si>
+  <si>
+    <t>bồ câu</t>
+  </si>
+  <si>
     <t>dolphin</t>
   </si>
   <si>
     <t>cá heo</t>
   </si>
   <si>
-    <t>bee</t>
-  </si>
-  <si>
-    <t>ong</t>
+    <t>turtle</t>
+  </si>
+  <si>
+    <t>rùa</t>
+  </si>
+  <si>
+    <t>lynx</t>
+  </si>
+  <si>
+    <t>linh miêu</t>
+  </si>
+  <si>
+    <t>swan</t>
+  </si>
+  <si>
+    <t>chim thiên nga</t>
+  </si>
+  <si>
+    <t>mole</t>
+  </si>
+  <si>
+    <t>chuột chũi</t>
+  </si>
+  <si>
+    <t>goat</t>
+  </si>
+  <si>
+    <t>con dê</t>
+  </si>
+  <si>
+    <t>tiger</t>
+  </si>
+  <si>
+    <t>hổ</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>sư tử</t>
+  </si>
+  <si>
+    <t>flamingo</t>
+  </si>
+  <si>
+    <t>chim hồng hạc</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>ngựa</t>
+  </si>
+  <si>
+    <t>leopard</t>
+  </si>
+  <si>
+    <t>báo</t>
+  </si>
+  <si>
+    <t>squirrel</t>
+  </si>
+  <si>
+    <t>con sóc</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>con sò</t>
+  </si>
+  <si>
+    <t>giraffe</t>
+  </si>
+  <si>
+    <t>hươu cao cổ</t>
+  </si>
+  <si>
+    <t>eagle</t>
+  </si>
+  <si>
+    <t>đại bàng</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>chó</t>
+  </si>
+  <si>
+    <t>elephant</t>
+  </si>
+  <si>
+    <t>voi</t>
+  </si>
+  <si>
+    <t>parrot</t>
+  </si>
+  <si>
+    <t>con vẹt</t>
+  </si>
+  <si>
+    <t>hawk</t>
+  </si>
+  <si>
+    <t>chim diều hâu</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>gà</t>
+  </si>
+  <si>
+    <t>shrimp</t>
+  </si>
+  <si>
+    <t>con tôm</t>
+  </si>
+  <si>
+    <t>jellyfish</t>
+  </si>
+  <si>
+    <t>con sứa</t>
+  </si>
+  <si>
+    <t>falcon</t>
+  </si>
+  <si>
+    <t>chim cắt</t>
+  </si>
+  <si>
+    <t>donkey</t>
+  </si>
+  <si>
+    <t>con lừa</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>cáo</t>
+  </si>
+  <si>
+    <t>dragonfly</t>
+  </si>
+  <si>
+    <t>chuồn chuồn</t>
+  </si>
+  <si>
+    <t>goldfish</t>
+  </si>
+  <si>
+    <t>cá vàng</t>
+  </si>
+  <si>
+    <t>butterfly</t>
+  </si>
+  <si>
+    <t>bướm</t>
+  </si>
+  <si>
+    <t>peguin</t>
+  </si>
+  <si>
+    <t>chim cánh cụt</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>mèo</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>cừu</t>
+  </si>
+  <si>
+    <t>scorpion</t>
+  </si>
+  <si>
+    <t>bọ cạp</t>
+  </si>
+  <si>
+    <t>shark</t>
+  </si>
+  <si>
+    <t>cá mập</t>
+  </si>
+  <si>
+    <t>wolf</t>
+  </si>
+  <si>
+    <t>chó sói</t>
   </si>
   <si>
     <t>ant</t>
@@ -50,46 +350,16 @@
     <t>kiến</t>
   </si>
   <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>sư tử</t>
-  </si>
-  <si>
-    <t>horse</t>
-  </si>
-  <si>
-    <t>ngựa</t>
-  </si>
-  <si>
-    <t>mouse</t>
-  </si>
-  <si>
-    <t>chuột</t>
-  </si>
-  <si>
-    <t>leopard</t>
-  </si>
-  <si>
-    <t>báo</t>
-  </si>
-  <si>
     <t>fly</t>
   </si>
   <si>
     <t>ruồi</t>
   </si>
   <si>
-    <t>butterfly</t>
-  </si>
-  <si>
-    <t>bướm</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>mèo</t>
+    <t>corocodile</t>
+  </si>
+  <si>
+    <t>cá sấu</t>
   </si>
   <si>
     <t>fish</t>
@@ -98,34 +368,16 @@
     <t>cá</t>
   </si>
   <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>chim chóc</t>
-  </si>
-  <si>
-    <t>bear</t>
-  </si>
-  <si>
-    <t>gấu</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>chó</t>
-  </si>
-  <si>
-    <t>elephant</t>
-  </si>
-  <si>
-    <t>voi</t>
-  </si>
-  <si>
-    <t>sheep</t>
-  </si>
-  <si>
-    <t>cừu</t>
+    <t>spider</t>
+  </si>
+  <si>
+    <t>nhện</t>
+  </si>
+  <si>
+    <t>crab</t>
+  </si>
+  <si>
+    <t>con cua</t>
   </si>
 </sst>
 </file>
@@ -181,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -242,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -270,7 +522,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -284,7 +536,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -326,7 +578,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -354,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -410,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
@@ -427,6 +679,594 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="true">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="true">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="true">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="true">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="true">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="true">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="true">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="true">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="true">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="true">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="true">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="true">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="true">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="true">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="true">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="true">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="true">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="true">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="true">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="true">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="true">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="true">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="true">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="true">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="true">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="true">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="true">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="true">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="true">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="true">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="true">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="true">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="true">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="true">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="true">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="true">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="true">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="true">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="true">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="true">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="true">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="true">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
         <v>0</v>
       </c>
     </row>
